--- a/Students.csv.xlsx
+++ b/Students.csv.xlsx
@@ -33,9 +33,6 @@
     <t>Горанов</t>
   </si>
   <si>
-    <t xml:space="preserve">Милан </t>
-  </si>
-  <si>
     <t>Миланов</t>
   </si>
   <si>
@@ -45,10 +42,13 @@
     <t>Стојанов</t>
   </si>
   <si>
-    <t>Стефи</t>
-  </si>
-  <si>
     <t>Стефанова</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Мартин</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -415,10 +415,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
       <c r="C3">
         <v>158</v>
@@ -426,10 +426,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4">
         <v>145</v>
@@ -437,10 +437,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>545</v>
